--- a/Networks/Parte2/Excel/Parte2-Network14.xlsx
+++ b/Networks/Parte2/Excel/Parte2-Network14.xlsx
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.288695383527467</v>
+        <v>0.4074410833041425</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3662395766652441</v>
+        <v>-0.3235948706838627</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.9302298255747078</v>
+        <v>-0.9149424885859798</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.4439085354057737</v>
+        <v>0.2679641128109156</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9402808124746559</v>
+        <v>-1.029645519130061</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.105331244832686</v>
+        <v>-0.3778705817855062</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.2396774394320584</v>
+        <v>-0.6301593127326485</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3372535871969411</v>
+        <v>0.02178725275786511</v>
       </c>
     </row>
     <row r="3">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.539164185629616</v>
+        <v>-1.721411225636108</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6018730522775667</v>
+        <v>0.583578942398884</v>
       </c>
     </row>
     <row r="4">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.525728971316069</v>
+        <v>0.3417411305010238</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4315180743591663</v>
+        <v>-0.6067060133936689</v>
       </c>
     </row>
   </sheetData>

--- a/Networks/Parte2/Excel/Parte2-Network14.xlsx
+++ b/Networks/Parte2/Excel/Parte2-Network14.xlsx
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4074410833041425</v>
+        <v>-0.1225721343096147</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3235948706838627</v>
+        <v>0.5606186046271986</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.9149424885859798</v>
+        <v>0.7173803524541073</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2679641128109156</v>
+        <v>-1.404933774125337</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.029645519130061</v>
+        <v>-0.2909214003976496</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.3778705817855062</v>
+        <v>-1.047722932434492</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.6301593127326485</v>
+        <v>-0.4842590857289767</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02178725275786511</v>
+        <v>0.2506462288344503</v>
       </c>
     </row>
     <row r="3">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.721411225636108</v>
+        <v>0.2734170130585224</v>
       </c>
       <c r="C3" t="n">
-        <v>0.583578942398884</v>
+        <v>-0.2967719627180544</v>
       </c>
     </row>
     <row r="4">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3417411305010238</v>
+        <v>-2.207334342030598</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6067060133936689</v>
+        <v>-0.2939936145181908</v>
       </c>
     </row>
   </sheetData>
